--- a/football_platform/football_platform/media/files/fullevents.xlsx
+++ b/football_platform/football_platform/media/files/fullevents.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7130"/>
+    <workbookView windowWidth="14630" windowHeight="7280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8180" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8180" uniqueCount="73">
   <si>
     <t>MatchID</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>Huskies_M5</t>
+  </si>
+  <si>
+    <t>Huskies_F5</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1180,7 @@
   <dimension ref="A1:M1522"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="A1:M1522"/>
+      <selection activeCell="D1526" sqref="D1526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -48592,7 +48595,7 @@
         <v>54</v>
       </c>
       <c r="D1256" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E1256" s="1" t="s">
         <v>65</v>
